--- a/public/data/lime/lime_table_mauritania.xlsx
+++ b/public/data/lime/lime_table_mauritania.xlsx
@@ -2212,7 +2212,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.92</v>
+        <v>0.13</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2221,7 +2221,7 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2635,10 +2635,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0.94</v>
+        <v>0.4</v>
       </c>
       <c r="K29" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -2729,7 +2729,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0.69</v>
+        <v>0.15</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3208,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
